--- a/DigSite/New Arcaism/uarm 2025 1/FilMod/observacionesOrbitales.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 1/FilMod/observacionesOrbitales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 1\FilMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241BF4E8-59D6-4CEC-BE46-8A84D3053E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A483F938-7148-4228-8CA1-F9500E4B368A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="180" windowWidth="8040" windowHeight="9795" xr2:uid="{96D10C2D-D60B-4DC3-A411-04E62EBF6F3B}"/>
+    <workbookView xWindow="8325" yWindow="180" windowWidth="12690" windowHeight="10665" xr2:uid="{96D10C2D-D60B-4DC3-A411-04E62EBF6F3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +480,9 @@
       <c r="E3">
         <v>17</v>
       </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -510,6 +513,9 @@
       <c r="E6">
         <v>17</v>
       </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -521,6 +527,9 @@
       <c r="E7">
         <v>18</v>
       </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -532,6 +541,9 @@
       <c r="E8">
         <v>17</v>
       </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -543,6 +555,9 @@
       <c r="E9">
         <v>18</v>
       </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -554,6 +569,9 @@
       <c r="E10">
         <v>17</v>
       </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -565,6 +583,9 @@
       <c r="E11">
         <v>18</v>
       </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -583,6 +604,12 @@
       </c>
       <c r="C13" t="s">
         <v>19</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DigSite/New Arcaism/uarm 2025 1/FilMod/observacionesOrbitales.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 1/FilMod/observacionesOrbitales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 1\FilMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A483F938-7148-4228-8CA1-F9500E4B368A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330A26F6-528C-4B35-9948-048921D4AADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="180" windowWidth="12690" windowHeight="10665" xr2:uid="{96D10C2D-D60B-4DC3-A411-04E62EBF6F3B}"/>
+    <workbookView xWindow="7800" yWindow="180" windowWidth="12690" windowHeight="10665" xr2:uid="{96D10C2D-D60B-4DC3-A411-04E62EBF6F3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,6 +483,9 @@
       <c r="F3">
         <v>16</v>
       </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -516,6 +519,9 @@
       <c r="F6">
         <v>16</v>
       </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -544,6 +550,9 @@
       <c r="F8">
         <v>16</v>
       </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -558,6 +567,9 @@
       <c r="F9">
         <v>17</v>
       </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -595,6 +607,9 @@
         <v>8</v>
       </c>
       <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="G12">
         <v>17</v>
       </c>
     </row>

--- a/DigSite/New Arcaism/uarm 2025 1/FilMod/observacionesOrbitales.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 1/FilMod/observacionesOrbitales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 1\FilMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330A26F6-528C-4B35-9948-048921D4AADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BECA2D-3837-4CF0-B4FD-A86AC95D17AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="180" windowWidth="12690" windowHeight="10665" xr2:uid="{96D10C2D-D60B-4DC3-A411-04E62EBF6F3B}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +486,9 @@
       <c r="G3">
         <v>17</v>
       </c>
+      <c r="H3">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -522,6 +525,9 @@
       <c r="G6">
         <v>17</v>
       </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -553,6 +559,9 @@
       <c r="G8">
         <v>17</v>
       </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -569,6 +578,9 @@
       </c>
       <c r="G9">
         <v>18</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">

--- a/DigSite/New Arcaism/uarm 2025 1/FilMod/observacionesOrbitales.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 1/FilMod/observacionesOrbitales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 1\FilMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BECA2D-3837-4CF0-B4FD-A86AC95D17AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8580C3E3-B233-49C8-851C-C68391750460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="180" windowWidth="12690" windowHeight="10665" xr2:uid="{96D10C2D-D60B-4DC3-A411-04E62EBF6F3B}"/>
+    <workbookView xWindow="9420" yWindow="120" windowWidth="10395" windowHeight="10665" xr2:uid="{96D10C2D-D60B-4DC3-A411-04E62EBF6F3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Alejos</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>ctrl4</t>
+  </si>
+  <si>
+    <t>promedio</t>
   </si>
 </sst>
 </file>
@@ -112,12 +115,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,8 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C655A8FB-386F-4274-A014-7438A9A64A2C}">
-  <dimension ref="B2:H13"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>20</v>
       </c>
@@ -469,8 +479,11 @@
       <c r="H2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -489,8 +502,22 @@
       <c r="H3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f>E3+F3+G3+H3</f>
+        <v>67</v>
+      </c>
+      <c r="J3">
+        <f>I3/4</f>
+        <v>16.75</v>
+      </c>
+      <c r="K3" s="1">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -500,16 +527,53 @@
       <c r="E4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I13" si="0">E4+F4+G4+H4</f>
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J13" si="1">I4/4</f>
+        <v>12.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -526,10 +590,24 @@
         <v>17</v>
       </c>
       <c r="H6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="K6" s="1">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -542,8 +620,28 @@
       <c r="F7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -562,8 +660,22 @@
       <c r="H8">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -577,13 +689,27 @@
         <v>17</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="K9" s="1">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -596,8 +722,25 @@
       <c r="F10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -610,8 +753,28 @@
       <c r="F11">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K11" s="1">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -621,11 +784,31 @@
       <c r="E12">
         <v>17</v>
       </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
       <c r="G12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>14.75</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -637,6 +820,26 @@
       </c>
       <c r="F13">
         <v>16</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="K13" s="1">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
